--- a/testpop.xlsx
+++ b/testpop.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestPopmart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CodeChep\autofillpop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071F0C0D-94C6-4587-9F7A-43B7DCA96322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E40471-292A-4B58-9EF0-65F9987DA46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3D98458D-5974-4D18-9914-2207DFC74510}"/>
   </bookViews>
@@ -144,12 +144,6 @@
     <t>date_of_birth</t>
   </si>
   <si>
-    <t>phone_number</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
     <t>id_card</t>
   </si>
   <si>
@@ -199,6 +193,12 @@
   </si>
   <si>
     <t>Nguyễn Văn Tai</t>
+  </si>
+  <si>
+    <t>SDT</t>
+  </si>
+  <si>
+    <t>gmail</t>
   </si>
 </sst>
 </file>
@@ -320,9 +320,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -360,7 +360,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -466,7 +466,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -608,7 +608,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -619,7 +619,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -638,18 +638,18 @@
         <v>38</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -661,12 +661,12 @@
         <v>5</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -678,12 +678,12 @@
         <v>6</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -695,7 +695,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -712,7 +712,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -729,7 +729,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -746,7 +746,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -763,7 +763,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -780,7 +780,7 @@
         <v>12</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -797,7 +797,7 @@
         <v>13</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -814,7 +814,7 @@
         <v>14</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -825,13 +825,13 @@
         <v>29</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
